--- a/data/lista_de_municipios_da_amazonia_legal_2014_v02.xlsx
+++ b/data/lista_de_municipios_da_amazonia_legal_2014_v02.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="1560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="1561">
   <si>
     <t>Rondônia</t>
   </si>
@@ -4699,6 +4699,9 @@
   </si>
   <si>
     <t>Area_Covered_sqkm_2055_4</t>
+  </si>
+  <si>
+    <t>Area_Lost_2055_4</t>
   </si>
 </sst>
 </file>
@@ -5179,7 +5182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q773"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -5240,7 +5243,7 @@
         <v>1559</v>
       </c>
       <c r="O1" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
